--- a/data/fine_regression_tree_results.xlsx
+++ b/data/fine_regression_tree_results.xlsx
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00038</v>
+        <v>0.000676</v>
       </c>
       <c r="B2" t="n">
-        <v>5.5e-05</v>
+        <v>0.000326</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002338</v>
+        <v>0.001855</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
